--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.16009702379</v>
+        <v>181.777022</v>
       </c>
       <c r="H2">
-        <v>137.16009702379</v>
+        <v>545.331066</v>
       </c>
       <c r="I2">
-        <v>0.6179140039711148</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J2">
-        <v>0.6179140039711148</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0653411950566061</v>
+        <v>0.146719</v>
       </c>
       <c r="N2">
-        <v>0.0653411950566061</v>
+        <v>0.440157</v>
       </c>
       <c r="O2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q2">
-        <v>8.96220465361448</v>
+        <v>26.670142890818</v>
       </c>
       <c r="R2">
-        <v>8.96220465361448</v>
+        <v>240.031286017362</v>
       </c>
       <c r="S2">
-        <v>0.007939496093086024</v>
+        <v>0.001492962878317041</v>
       </c>
       <c r="T2">
-        <v>0.007939496093086024</v>
+        <v>0.001520394072854346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.16009702379</v>
+        <v>181.777022</v>
       </c>
       <c r="H3">
-        <v>137.16009702379</v>
+        <v>545.331066</v>
       </c>
       <c r="I3">
-        <v>0.6179140039711148</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J3">
-        <v>0.6179140039711148</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.02002429770372</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N3">
-        <v>5.02002429770372</v>
+        <v>86.795951</v>
       </c>
       <c r="O3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q3">
-        <v>688.5470197348254</v>
+        <v>5259.169831479308</v>
       </c>
       <c r="R3">
-        <v>688.5470197348254</v>
+        <v>47332.52848331376</v>
       </c>
       <c r="S3">
-        <v>0.6099745078780288</v>
+        <v>0.29440207205889</v>
       </c>
       <c r="T3">
-        <v>0.6099745078780288</v>
+        <v>0.2998113160716659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.3747107092339</v>
+        <v>181.777022</v>
       </c>
       <c r="H4">
-        <v>70.3747107092339</v>
+        <v>545.331066</v>
       </c>
       <c r="I4">
-        <v>0.3170420568097818</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J4">
-        <v>0.3170420568097818</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0653411950566061</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N4">
-        <v>0.0653411950566061</v>
+        <v>111.627821</v>
       </c>
       <c r="O4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q4">
-        <v>4.598367699504278</v>
+        <v>6763.790957909687</v>
       </c>
       <c r="R4">
-        <v>4.598367699504278</v>
+        <v>60874.11862118718</v>
       </c>
       <c r="S4">
-        <v>0.004073631856873868</v>
+        <v>0.378628973162802</v>
       </c>
       <c r="T4">
-        <v>0.004073631856873868</v>
+        <v>0.3855857737444729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.3747107092339</v>
+        <v>72.32699966666667</v>
       </c>
       <c r="H5">
-        <v>70.3747107092339</v>
+        <v>216.980999</v>
       </c>
       <c r="I5">
-        <v>0.3170420568097818</v>
+        <v>0.2683853942167015</v>
       </c>
       <c r="J5">
-        <v>0.3170420568097818</v>
+        <v>0.2733166165978157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.02002429770372</v>
+        <v>0.146719</v>
       </c>
       <c r="N5">
-        <v>5.02002429770372</v>
+        <v>0.440157</v>
       </c>
       <c r="O5">
-        <v>0.9871511309954755</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P5">
-        <v>0.9871511309954755</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q5">
-        <v>353.2827577042243</v>
+        <v>10.61174506409367</v>
       </c>
       <c r="R5">
-        <v>353.2827577042243</v>
+        <v>95.505705576843</v>
       </c>
       <c r="S5">
-        <v>0.3129684249529078</v>
+        <v>0.0005940328673795874</v>
       </c>
       <c r="T5">
-        <v>0.3129684249529078</v>
+        <v>0.0006049474261963554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.4379848276084</v>
+        <v>72.32699966666667</v>
       </c>
       <c r="H6">
-        <v>14.4379848276084</v>
+        <v>216.980999</v>
       </c>
       <c r="I6">
-        <v>0.06504393921910333</v>
+        <v>0.2683853942167015</v>
       </c>
       <c r="J6">
-        <v>0.06504393921910333</v>
+        <v>0.2733166165978157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0653411950566061</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N6">
-        <v>0.0653411950566061</v>
+        <v>86.795951</v>
       </c>
       <c r="O6">
-        <v>0.0128488690045244</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P6">
-        <v>0.0128488690045244</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q6">
-        <v>0.9433951828450798</v>
+        <v>2092.563573015006</v>
       </c>
       <c r="R6">
-        <v>0.9433951828450798</v>
+        <v>18833.07215713505</v>
       </c>
       <c r="S6">
-        <v>0.0008357410545645057</v>
+        <v>0.1171392199816615</v>
       </c>
       <c r="T6">
-        <v>0.0008357410545645057</v>
+        <v>0.1192914963563342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H7">
+        <v>216.980999</v>
+      </c>
+      <c r="I7">
+        <v>0.2683853942167015</v>
+      </c>
+      <c r="J7">
+        <v>0.2733166165978157</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N7">
+        <v>111.627821</v>
+      </c>
+      <c r="O7">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P7">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q7">
+        <v>2691.235124085909</v>
+      </c>
+      <c r="R7">
+        <v>24221.11611677318</v>
+      </c>
+      <c r="S7">
+        <v>0.1506521413676604</v>
+      </c>
+      <c r="T7">
+        <v>0.1534201728152852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.381815</v>
+      </c>
+      <c r="I8">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J8">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.146719</v>
+      </c>
+      <c r="N8">
+        <v>0.440157</v>
+      </c>
+      <c r="O8">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P8">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q8">
+        <v>0.01867317166166667</v>
+      </c>
+      <c r="R8">
+        <v>0.168058544955</v>
+      </c>
+      <c r="S8">
+        <v>1.045301940279744E-06</v>
+      </c>
+      <c r="T8">
+        <v>1.064507964281064E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.381815</v>
+      </c>
+      <c r="I9">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J9">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N9">
+        <v>86.795951</v>
+      </c>
+      <c r="O9">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P9">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q9">
+        <v>3.682221781229445</v>
+      </c>
+      <c r="R9">
+        <v>33.139996031065</v>
+      </c>
+      <c r="S9">
+        <v>0.0002061263957831537</v>
+      </c>
+      <c r="T9">
+        <v>0.0002099136924025948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.381815</v>
+      </c>
+      <c r="I10">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J10">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N10">
+        <v>111.627821</v>
+      </c>
+      <c r="O10">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P10">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q10">
+        <v>4.735686275012778</v>
+      </c>
+      <c r="R10">
+        <v>42.621176475115</v>
+      </c>
+      <c r="S10">
+        <v>0.0002650980851843773</v>
+      </c>
+      <c r="T10">
+        <v>0.0002699689076621319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.014577</v>
+      </c>
+      <c r="I11">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J11">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.146719</v>
+      </c>
+      <c r="N11">
+        <v>0.440157</v>
+      </c>
+      <c r="O11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q11">
+        <v>0.09852557428766669</v>
+      </c>
+      <c r="R11">
+        <v>0.8867301685890001</v>
+      </c>
+      <c r="S11">
+        <v>5.515344465102067E-06</v>
+      </c>
+      <c r="T11">
+        <v>5.616681537282327E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.014577</v>
+      </c>
+      <c r="I12">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J12">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N12">
+        <v>86.795951</v>
+      </c>
+      <c r="O12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q12">
+        <v>19.42856961974745</v>
+      </c>
+      <c r="R12">
+        <v>174.857126577727</v>
+      </c>
+      <c r="S12">
+        <v>0.001087588219524216</v>
+      </c>
+      <c r="T12">
+        <v>0.001107571197305874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.014577</v>
+      </c>
+      <c r="I13">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J13">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N13">
+        <v>111.627821</v>
+      </c>
+      <c r="O13">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P13">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q13">
+        <v>24.98698230519078</v>
+      </c>
+      <c r="R13">
+        <v>224.882840746717</v>
+      </c>
+      <c r="S13">
+        <v>0.001398741550637055</v>
+      </c>
+      <c r="T13">
+        <v>0.00142444155439481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>14.4379848276084</v>
-      </c>
-      <c r="H7">
-        <v>14.4379848276084</v>
-      </c>
-      <c r="I7">
-        <v>0.06504393921910333</v>
-      </c>
-      <c r="J7">
-        <v>0.06504393921910333</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="N7">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="O7">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="P7">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="Q7">
-        <v>72.47903464447182</v>
-      </c>
-      <c r="R7">
-        <v>72.47903464447182</v>
-      </c>
-      <c r="S7">
-        <v>0.06420819816453881</v>
-      </c>
-      <c r="T7">
-        <v>0.06420819816453881</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.5865095</v>
+      </c>
+      <c r="H14">
+        <v>29.173019</v>
+      </c>
+      <c r="I14">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J14">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.146719</v>
+      </c>
+      <c r="N14">
+        <v>0.440157</v>
+      </c>
+      <c r="O14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q14">
+        <v>2.1401180873305</v>
+      </c>
+      <c r="R14">
+        <v>12.840708523983</v>
+      </c>
+      <c r="S14">
+        <v>0.0001198012651330533</v>
+      </c>
+      <c r="T14">
+        <v>8.133496868279871E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.5865095</v>
+      </c>
+      <c r="H15">
+        <v>29.173019</v>
+      </c>
+      <c r="I15">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J15">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N15">
+        <v>86.795951</v>
+      </c>
+      <c r="O15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q15">
+        <v>422.0166546076782</v>
+      </c>
+      <c r="R15">
+        <v>2532.099927646069</v>
+      </c>
+      <c r="S15">
+        <v>0.02362399039030733</v>
+      </c>
+      <c r="T15">
+        <v>0.01603869972845764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.5865095</v>
+      </c>
+      <c r="H16">
+        <v>29.173019</v>
+      </c>
+      <c r="I16">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J16">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N16">
+        <v>111.627821</v>
+      </c>
+      <c r="O16">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P16">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q16">
+        <v>542.7534238269332</v>
+      </c>
+      <c r="R16">
+        <v>3256.520542961599</v>
+      </c>
+      <c r="S16">
+        <v>0.0303826911303149</v>
+      </c>
+      <c r="T16">
+        <v>0.02062728827478391</v>
       </c>
     </row>
   </sheetData>
